--- a/Excel_Sales_Marketing_Scorecards_Template.xlsx
+++ b/Excel_Sales_Marketing_Scorecards_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/Excel Scorecards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_L0_Excel_Performance_Scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB46867-57B4-43A1-AFD3-0250746F90A2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B541DB1A-50B1-4CAE-A4AA-E2A17D153D7B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
@@ -509,15 +509,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,7 +547,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9315450" y="3838575"/>
+          <a:off x="9191625" y="3114675"/>
           <a:ext cx="7905750" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -570,15 +570,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,7 +608,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="152400" y="3771900"/>
+          <a:off x="85725" y="3048000"/>
           <a:ext cx="8943975" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A861E2-E235-43CE-AC0D-B1A33C91A044}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel_Sales_Marketing_Scorecards_Template.xlsx
+++ b/Excel_Sales_Marketing_Scorecards_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_L0_Excel_Performance_Scorecards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/L0_Excel_Performance_Scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B541DB1A-50B1-4CAE-A4AA-E2A17D153D7B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DC22A9-137C-4D63-941D-E902B82FD38A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$H$18</definedName>
+    <definedName name="Leads">Data!$G$3:$G$46</definedName>
+    <definedName name="Pipeline">Data!$F$3:$F$46</definedName>
+    <definedName name="Pipeline_Lead">Data!$H$3:$H$46</definedName>
+    <definedName name="QTR">Data!$A$3:$A$46</definedName>
+    <definedName name="Region">Data!$B$3:$B$46</definedName>
+    <definedName name="Revenue">Data!$C$3:$C$46</definedName>
+    <definedName name="Revenue_Win">Data!$E$3:$E$46</definedName>
+    <definedName name="Wins">Data!$D$3:$D$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -930,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A861E2-E235-43CE-AC0D-B1A33C91A044}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E553BC-EC47-4C5D-A122-7138B454D697}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1542,13 +1550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CA1F05-C979-470B-90E1-0CEE092E3BE2}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.33203125" customWidth="1"/>
